--- a/Testbed/Port summary.xlsx
+++ b/Testbed/Port summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n9871586\OneDrive - Queensland University of Technology\Desktop\PhD project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n9871586\OneDrive - Queensland University of Technology\Desktop\PhD project\Togithub\Stage2\Stage2\Testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE5596-1AB6-4771-BFBD-925F59E802B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BF3A9-41CF-4FD9-980B-E62895B9E988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
   <si>
     <t>Port number</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>Status_CB_Feeder4</t>
+  </si>
+  <si>
+    <t>CB_Feeder3_Voltage</t>
+  </si>
+  <si>
+    <t>CB_Feeder4_Voltage</t>
+  </si>
+  <si>
+    <t>CB_Feeder3_Current</t>
+  </si>
+  <si>
+    <t>CB_Feeder4_Current</t>
   </si>
 </sst>
 </file>
@@ -586,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +817,7 @@
         <v>11103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -819,7 +831,7 @@
         <v>11104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1141,7 +1153,7 @@
         <v>11113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -1155,7 +1167,7 @@
         <v>11114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
